--- a/氣象性能評估工具V2/data/obs/2016-06-10_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-10_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="183">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>20.7</t>
+  </si>
+  <si>
     <t>2016-06-10-00</t>
   </si>
   <si>
-    <t>20.7</t>
-  </si>
-  <si>
     <t>26.5</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>25.7</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-10-02</t>
   </si>
   <si>
-    <t>21.2</t>
-  </si>
-  <si>
     <t>22.5</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>25.5</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>2016-06-10-04</t>
   </si>
   <si>
-    <t>20.8</t>
-  </si>
-  <si>
     <t>22.2</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>25.4</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-10-05</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>22.6</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>6.6</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-10-06</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>27.3</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>7.4</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-10-07</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>27.5</t>
   </si>
   <si>
@@ -313,12 +313,12 @@
     <t>27.6</t>
   </si>
   <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>2016-06-10-08</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>28.3</t>
   </si>
   <si>
@@ -346,12 +346,12 @@
     <t>10.0</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-10-09</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>24.4</t>
   </si>
   <si>
@@ -400,12 +400,12 @@
     <t>9.8</t>
   </si>
   <si>
+    <t>23.6</t>
+  </si>
+  <si>
     <t>2016-06-10-11</t>
   </si>
   <si>
-    <t>23.6</t>
-  </si>
-  <si>
     <t>31.3</t>
   </si>
   <si>
@@ -427,12 +427,12 @@
     <t>8.0</t>
   </si>
   <si>
+    <t>23.5</t>
+  </si>
+  <si>
     <t>2016-06-10-12</t>
   </si>
   <si>
-    <t>23.5</t>
-  </si>
-  <si>
     <t>28.7</t>
   </si>
   <si>
@@ -442,12 +442,12 @@
     <t>8.2</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-10-13</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>30.0</t>
   </si>
   <si>
@@ -508,12 +508,12 @@
     <t>27.2</t>
   </si>
   <si>
+    <t>21.3</t>
+  </si>
+  <si>
     <t>2016-06-10-18</t>
   </si>
   <si>
-    <t>21.3</t>
-  </si>
-  <si>
     <t>21.1</t>
   </si>
   <si>
@@ -550,10 +550,10 @@
     <t>24.5</t>
   </si>
   <si>
+    <t>20.2</t>
+  </si>
+  <si>
     <t>2016-06-10-22</t>
-  </si>
-  <si>
-    <t>20.2</t>
   </si>
   <si>
     <t>2016-06-10-23</t>
@@ -569,6 +569,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -598,8 +601,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,11 +982,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1055,11 +1059,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1132,11 +1136,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -1209,11 +1213,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1286,11 +1290,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -1363,11 +1367,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1440,11 +1444,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1517,11 +1521,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -1560,7 +1564,7 @@
         <v>27</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
         <v>96</v>
@@ -1594,11 +1598,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -1671,11 +1675,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
       </c>
       <c r="C11" t="s">
         <v>102</v>
@@ -1714,7 +1718,7 @@
         <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s">
         <v>115</v>
@@ -1748,11 +1752,11 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -1825,11 +1829,11 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
         <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>123</v>
@@ -1902,11 +1906,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
         <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>114</v>
@@ -1945,7 +1949,7 @@
         <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
         <v>140</v>
@@ -1979,11 +1983,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
       </c>
       <c r="C15" t="s">
         <v>144</v>
@@ -2056,11 +2060,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>114</v>
@@ -2133,7 +2137,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B17" t="s">
@@ -2210,7 +2214,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B18" t="s">
@@ -2287,7 +2291,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B19" t="s">
@@ -2364,11 +2368,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
         <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
@@ -2441,7 +2445,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B21" t="s">
@@ -2451,7 +2455,7 @@
         <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -2518,7 +2522,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B22" t="s">
@@ -2561,7 +2565,7 @@
         <v>81</v>
       </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P22" t="s">
         <v>37</v>
@@ -2595,11 +2599,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -2638,7 +2642,7 @@
         <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P23" t="s">
         <v>176</v>
@@ -2672,17 +2676,17 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" t="s">
         <v>178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>179</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -2715,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s">
         <v>176</v>
@@ -2749,7 +2753,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B25" t="s">
@@ -2759,7 +2763,7 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
